--- a/Version 2/Dashboard.xlsx
+++ b/Version 2/Dashboard.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="116" documentId="8_{C5E1A9A8-FB4A-4401-8F34-8D4E948C7372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBC82E3-CBFB-4B25-B687-ED51320567D8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{131B6171-A27D-47FC-BADB-DF58BD1179EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{131B6171-A27D-47FC-BADB-DF58BD1179EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
